--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21710" windowHeight="11040"/>
+    <workbookView windowWidth="21710" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1136,6 +1136,48 @@
         <a:xfrm>
           <a:off x="805815" y="5816600"/>
           <a:ext cx="7683500" cy="3642360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>344170</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8708390" y="82550"/>
+          <a:ext cx="5605780" cy="2580640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1024,16 +1024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,7 +1050,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="2742565"/>
+          <a:off x="2042795" y="8921750"/>
           <a:ext cx="8753475" cy="3042285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,6 +1178,48 @@
         <a:xfrm>
           <a:off x="8708390" y="82550"/>
           <a:ext cx="5605780" cy="2580640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8428355" y="2696845"/>
+          <a:ext cx="7349490" cy="3178810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,7 +1496,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
